--- a/Hakkathon/bensingogn.xlsx
+++ b/Hakkathon/bensingogn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\Hakkathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D331317-34BB-4783-BA86-E43AF567813C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BB90CC46-F264-4B3F-BCC4-EF687FE586FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -1117,7 +1117,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
+      <selection activeCell="D404" sqref="D404"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
